--- a/biology/Zoologie/Atherinoidei/Atherinoidei.xlsx
+++ b/biology/Zoologie/Atherinoidei/Atherinoidei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Atherinoidei sont un sous-ordre de poissons de l'ordre des Atheriniformes. 
 </t>
@@ -511,15 +523,17 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (18 juin 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (18 juin 2023) :
 Atherinidae Risso, 1827
 Atherionidae Schultz, 1948
 Melanotaeniidae Gill, 1894
 Notocheiridae Schultz, 1950
 Phallostethidae Regan, 1916
-En ce qui concerne la famille Bedotiidae (incluant les genres Bedotia et Rheocles), la classification est plus complexe car elle est soit synonyme de Melanotaenia (pour ITIS notamment[2]), soit il s'agit d'une famille à part entière (pour IRMNG[3]).
+En ce qui concerne la famille Bedotiidae (incluant les genres Bedotia et Rheocles), la classification est plus complexe car elle est soit synonyme de Melanotaenia (pour ITIS notamment), soit il s'agit d'une famille à part entière (pour IRMNG).
 </t>
         </is>
       </c>
